--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://qpath.ukdd.de/ValueSet/q4ms-terminanfragekategorie-vs</t>
+    <t>http://terminology-fgdh.wiwi.tu-dresden.de/fhir/ValueSet/q4ms-terminanfragekategorie-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T11:59:55+01:00</t>
+    <t>2021-12-22T13:43:58+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://qpath.ukdd.de/CodeSystem/q4ms-terminanfragekategorie</t>
+    <t>http://terminology-fgdh.wiwi.tu-dresden.de/fhir/CodeSystem/q4ms-terminanfragekategorie</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Terminanfragekategorie ValueSet</t>
+    <t>Terminanfragekategorie</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T13:43:58+01:00</t>
+    <t>2021-12-22T19:56:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Definiert Terminanfragekategorie</t>
+    <t>Definiert Terminanfragekategorien</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T19:56:03+01:00</t>
+    <t>2021-12-22T21:26:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>QPath4MS</t>
+    <t>Forschungsgruppe Digital Health</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Description</t>
@@ -236,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,30 +332,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +393,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://terminology-fgdh.wiwi.tu-dresden.de/fhir/ValueSet/q4ms-terminanfragekategorie-vs</t>
+    <t>http://qpath4ms.ukdd.de/fhir/ValueSet/q4ms-terminanfragekategorie-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T21:26:07+01:00</t>
+    <t>2022-01-03T16:30:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://terminology-fgdh.wiwi.tu-dresden.de/fhir/CodeSystem/q4ms-terminanfragekategorie</t>
+    <t>http://qpath4ms.ukdd.de/fhir/CodeSystem/q4ms-terminanfragekategorie</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-03T16:30:59+01:00</t>
+    <t>2022-01-10T21:07:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
+++ b/output/ValueSet-q4ms-terminanfragekategorie-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T21:07:17+01:00</t>
+    <t>2022-01-13T14:43:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
